--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
@@ -29,14 +29,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
@@ -104,7 +104,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -387,7 +387,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
@@ -403,12 +403,6 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:1">
-      <x:c r="A3" s="0" t="s"/>
-    </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="0" t="s">
         <x:v>1</x:v>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
@@ -79,17 +79,7 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="2">
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
-          <x:bgColor rgb="FFFF0000"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
+  <x:dxfs count="1">
     <x:dxf>
       <x:font/>
       <x:fill>
@@ -410,7 +400,7 @@
     </x:row>
   </x:sheetData>
   <x:conditionalFormatting sqref="A1:A4">
-    <x:cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <x:cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <x:formula>LEN(TRIM(A1))&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
@@ -84,7 +84,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
@@ -94,7 +94,7 @@
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
@@ -79,22 +79,12 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="2">
+  <x:dxfs count="1">
     <x:dxf>
       <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
-          <x:bgColor rgb="FFFF0000"/>
-        </x:patternFill>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font/>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor rgb="FFFF0000"/>
+          <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
@@ -410,7 +400,7 @@
     </x:row>
   </x:sheetData>
   <x:conditionalFormatting sqref="A1:A4">
-    <x:cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <x:cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <x:formula>LEN(TRIM(A1))&gt;0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>

--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFNotBlank.xlsx
@@ -81,14 +81,12 @@
   </x:cellStyles>
   <x:dxfs count="1">
     <x:dxf>
-      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor auto="1"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>
